--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{314417DE-1579-41A9-A7BD-E4B5A8A5A91E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>what</t>
   </si>
@@ -37,88 +37,103 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Graduate Assistant</t>
-  </si>
-  <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
-    <t>IT Accessibility Team, Teaching and Learning with Technology (TLT)</t>
-  </si>
-  <si>
-    <t>Principal Investigator</t>
-  </si>
-  <si>
-    <t>Playful Learning and Inclusive Design Research Group</t>
-  </si>
-  <si>
-    <t>Graduate Researcher</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Avenue PM Research Group</t>
-  </si>
-  <si>
-    <t>Sep. 2014 - May. 2016</t>
-  </si>
-  <si>
-    <t>Participated in Dr. Simon Hooper's grant project sponsored by the U.S. Department of Education Stepping Stones Phase II program.</t>
-  </si>
-  <si>
-    <t>Improved web accessibility for deaf-blind learners by removing blockers on website platform.</t>
-  </si>
-  <si>
-    <t>Jun. 2017 - Present</t>
-  </si>
-  <si>
-    <t>May. 2019 - Present</t>
-  </si>
-  <si>
-    <t>Conducting quantitative ethnography research on how blind learners pursue STEM disciplines as captured through a large-scale  mailing listservs.</t>
-  </si>
-  <si>
-    <t>Using data science, computational linguistics (i.e., unsupervised machine learning for text mining; natural language processing) approaches coupled with conventional ethnographic methods.</t>
-  </si>
-  <si>
-    <t>Conducting interaction analysis and microethnographic studies for Dr. Gabriela Richard's inclusive gaming for learning and accessible makerspaces for youth with diverse background.</t>
-  </si>
-  <si>
-    <t>Conducting usability and design research on how to make current electronics and maker toolkits more accessible for learners with visual impairments.</t>
-  </si>
-  <si>
-    <t>Developed an accessible web application for people with dis/abilities to easily compose a high-quality scientific document based on LAMP, AJAX, R Markdown, and MathML.</t>
-  </si>
-  <si>
-    <t>Accessible RMarkdown Online Writer (AROW) Project, Teaching and Learning with Technology (TLT)</t>
-  </si>
-  <si>
-    <t>May. 2018 - Present</t>
-  </si>
-  <si>
-    <t>Evaluating suitability of digital badges according to web content accessibility guidelines (WCAG) 2.0.</t>
-  </si>
-  <si>
-    <t>Online Interactions of the Blind Research Project</t>
-  </si>
-  <si>
-    <t>Accessibility of Maker Toolkits Research Project</t>
-  </si>
-  <si>
-    <t>Learning Math with Jupyter Notebooks</t>
-  </si>
-  <si>
-    <t>Sep. 2020 - Present</t>
-  </si>
-  <si>
-    <t>Assisting Dr. Jan Reimann (Associate Professor of Mathematics) in developing accessible Jupyter Notebook systems for Math 110 (Techniques of Calculus).</t>
-  </si>
-  <si>
-    <t>Developing and consulting accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools.</t>
+    <t>Postdoctoral Research Fellow</t>
+  </si>
+  <si>
+    <t>Sep 2019 - Present</t>
+  </si>
+  <si>
+    <t>Theoretical Ecology Group, Department of Biological Sciences, University of Bergen</t>
+  </si>
+  <si>
+    <t>Bergen, Norway</t>
+  </si>
+  <si>
+    <t>Project: "The fundamental role of mesopelagic fishes for the structure and change of Northeast Atlantic marine ecosystems", funded by the Research Council of Norway, #294819</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Feb 2019 - Mar 2020</t>
+  </si>
+  <si>
+    <t>Arven etter Nansen (Nansen legacy), University Centre in Svalbard</t>
+  </si>
+  <si>
+    <t>Longyearbyen, Svalbard, Norway</t>
+  </si>
+  <si>
+    <t>Project: "The pelagic riskscape and consequences for zooplankton size along gradients of light and sea-ice in the Barents Sea"</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
+  </si>
+  <si>
+    <t>Jul 2014 - Nov 2014</t>
+  </si>
+  <si>
+    <t>Thuenen Institute of Baltic Sea Fisheries</t>
+  </si>
+  <si>
+    <t>Rostock, Germany</t>
+  </si>
+  <si>
+    <t>Responsibility: net and acoustic sampling during the Rügen Herring larvae survey</t>
+  </si>
+  <si>
+    <t>Freelance Ecological Consultant</t>
+  </si>
+  <si>
+    <t>2012 -2014</t>
+  </si>
+  <si>
+    <t>BUND, Friends of the Earth Germany</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>Contracted to develop and evaluate nature friendly methods of ditch clearance in FFH sites of high importance for the aquatic fauna</t>
+  </si>
+  <si>
+    <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewässerökologie</t>
+  </si>
+  <si>
+    <t>Contracted to assist in electro fishing surveys</t>
+  </si>
+  <si>
+    <t>ÖKOLOGIS Umweltanalyse + Landschaftsplanung GmbH</t>
+  </si>
+  <si>
+    <t>Contracted to map selected breeding birds in the FFH-site Werderland</t>
+  </si>
+  <si>
+    <t>2009 -2011</t>
+  </si>
+  <si>
+    <t>Bioconsult SH GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Husum, Germany</t>
+  </si>
+  <si>
+    <t>Contracted to assist in offshore maintainance of harbour porpoise detectors, seabird at sea counts, and radar image assessment for quantitative migratory bird counts used in environmental impact assessments</t>
+  </si>
+  <si>
+    <t>National Park Warden</t>
+  </si>
+  <si>
+    <t>Oct 2008 - Jun 2009</t>
+  </si>
+  <si>
+    <t>Schutzstation-Wattenmeer e.V., Germany</t>
+  </si>
+  <si>
+    <t>Hörnum, Sylt, Germany</t>
+  </si>
+  <si>
+    <t>In fullfilment of  the German Civilian Service</t>
   </si>
 </sst>
 </file>
@@ -602,8 +617,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,13 +977,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="174" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,138 +1009,141 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>16</v>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{314417DE-1579-41A9-A7BD-E4B5A8A5A91E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECBA7A9C-80E5-42F0-8946-A7FBEEC1170D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>what</t>
   </si>
@@ -82,58 +82,7 @@
     <t>Responsibility: net and acoustic sampling during the Rügen Herring larvae survey</t>
   </si>
   <si>
-    <t>Freelance Ecological Consultant</t>
-  </si>
-  <si>
-    <t>2012 -2014</t>
-  </si>
-  <si>
-    <t>BUND, Friends of the Earth Germany</t>
-  </si>
-  <si>
-    <t>Bremen, Germany</t>
-  </si>
-  <si>
-    <t>Contracted to develop and evaluate nature friendly methods of ditch clearance in FFH sites of high importance for the aquatic fauna</t>
-  </si>
-  <si>
-    <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewässerökologie</t>
-  </si>
-  <si>
-    <t>Contracted to assist in electro fishing surveys</t>
-  </si>
-  <si>
-    <t>ÖKOLOGIS Umweltanalyse + Landschaftsplanung GmbH</t>
-  </si>
-  <si>
-    <t>Contracted to map selected breeding birds in the FFH-site Werderland</t>
-  </si>
-  <si>
-    <t>2009 -2011</t>
-  </si>
-  <si>
-    <t>Bioconsult SH GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Husum, Germany</t>
-  </si>
-  <si>
-    <t>Contracted to assist in offshore maintainance of harbour porpoise detectors, seabird at sea counts, and radar image assessment for quantitative migratory bird counts used in environmental impact assessments</t>
-  </si>
-  <si>
-    <t>National Park Warden</t>
-  </si>
-  <si>
-    <t>Oct 2008 - Jun 2009</t>
-  </si>
-  <si>
-    <t>Schutzstation-Wattenmeer e.V., Germany</t>
-  </si>
-  <si>
-    <t>Hörnum, Sylt, Germany</t>
-  </si>
-  <si>
-    <t>In fullfilment of  the German Civilian Service</t>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -977,22 +926,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="174" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="174" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,151 +950,118 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECBA7A9C-80E5-42F0-8946-A7FBEEC1170D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{727F47CE-CC2F-4F6C-9798-890B565E3D1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,10 +79,10 @@
     <t>Rostock, Germany</t>
   </si>
   <si>
-    <t>Responsibility: net and acoustic sampling during the Rügen Herring larvae survey</t>
-  </si>
-  <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Assisting during the Rügen Herring larvae survey</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1020,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
